--- a/save/eis_sumer_ion_width_merg.xlsx
+++ b/save/eis_sumer_ion_width_merg.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76A68B0-3808-B74E-935E-60661BBD52EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6998D551-F433-3C49-89E2-6AF9BFA8DDD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
+    <workbookView xWindow="3920" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
   <si>
     <t>ion</t>
   </si>
   <si>
-    <t>obs</t>
-  </si>
-  <si>
     <t>veff</t>
   </si>
   <si>
@@ -109,6 +106,30 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>SUMER</t>
+  </si>
+  <si>
+    <t>blend with O I</t>
+  </si>
+  <si>
+    <t>inst</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -460,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBF4585-E0CB-704A-A75C-59A594F7DB44}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,39 +494,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -513,8 +534,11 @@
       <c r="D2">
         <v>55.85</v>
       </c>
+      <c r="E2">
+        <v>5.7</v>
+      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>75</v>
@@ -523,15 +547,15 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -539,8 +563,11 @@
       <c r="D3">
         <v>55.85</v>
       </c>
+      <c r="E3">
+        <v>5.8</v>
+      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>53.4</v>
@@ -549,15 +576,15 @@
         <v>2.9</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -565,8 +592,11 @@
       <c r="D4">
         <v>55.85</v>
       </c>
+      <c r="E4">
+        <v>5.8</v>
+      </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>58.7</v>
@@ -575,15 +605,15 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -591,8 +621,11 @@
       <c r="D5">
         <v>55.85</v>
       </c>
+      <c r="E5">
+        <v>5.9</v>
+      </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>60.9</v>
@@ -601,15 +634,15 @@
         <v>2.5</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -617,8 +650,11 @@
       <c r="D6">
         <v>55.85</v>
       </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>65.3</v>
@@ -627,15 +663,15 @@
         <v>0.7</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -643,8 +679,11 @@
       <c r="D7">
         <v>55.85</v>
       </c>
+      <c r="E7">
+        <v>6.1</v>
+      </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>67</v>
@@ -653,15 +692,15 @@
         <v>3.1</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -669,8 +708,11 @@
       <c r="D8">
         <v>55.85</v>
       </c>
+      <c r="E8">
+        <v>6.1</v>
+      </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>64.5</v>
@@ -679,15 +721,15 @@
         <v>5.6</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -695,8 +737,11 @@
       <c r="D9">
         <v>15.9994</v>
       </c>
+      <c r="E9">
+        <v>5.6</v>
+      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>68.599999999999994</v>
@@ -705,15 +750,15 @@
         <v>6.3</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -721,8 +766,11 @@
       <c r="D10">
         <v>24.305</v>
       </c>
+      <c r="E10">
+        <v>5.7</v>
+      </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>61</v>
@@ -731,15 +779,15 @@
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -747,8 +795,11 @@
       <c r="D11">
         <v>24.305</v>
       </c>
+      <c r="E11">
+        <v>5.8</v>
+      </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>64.2</v>
@@ -757,21 +808,27 @@
         <v>8.4</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>28.0855</v>
+      </c>
+      <c r="E12">
+        <v>5.8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>65.3</v>
@@ -780,21 +837,27 @@
         <v>1.2</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
+      <c r="D13">
+        <v>28.0855</v>
+      </c>
+      <c r="E13">
+        <v>5.9</v>
+      </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>58</v>
@@ -803,21 +866,27 @@
         <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>9</v>
       </c>
+      <c r="D14">
+        <v>28.0855</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>61.7</v>
@@ -826,21 +895,27 @@
         <v>6.8</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
+      <c r="D15">
+        <v>32.06</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <v>61.5</v>
@@ -849,7 +924,503 @@
         <v>16.7</v>
       </c>
       <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>54.938000000000002</v>
+      </c>
+      <c r="E16">
+        <v>5.9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>72.3</v>
+      </c>
+      <c r="H16">
         <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>24.305</v>
+      </c>
+      <c r="E17">
+        <v>5.8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>5.9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>24.305</v>
+      </c>
+      <c r="E18">
+        <v>5.9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>86.2</v>
+      </c>
+      <c r="H18">
+        <v>5.2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>24.305</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>69.7</v>
+      </c>
+      <c r="H19">
+        <v>4.2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>55.85</v>
+      </c>
+      <c r="E20">
+        <v>5.8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="H20">
+        <v>1.3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>55.85</v>
+      </c>
+      <c r="E21">
+        <v>5.9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>86.6</v>
+      </c>
+      <c r="H21">
+        <v>2.4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>55.85</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>73</v>
+      </c>
+      <c r="H22">
+        <v>1.5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>22.98977</v>
+      </c>
+      <c r="E23">
+        <v>5.9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>96.2</v>
+      </c>
+      <c r="H23">
+        <v>1.8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>39.948</v>
+      </c>
+      <c r="E24">
+        <v>5.7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="H24">
+        <v>2.5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>15.9994</v>
+      </c>
+      <c r="E25">
+        <v>5.5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25">
+        <v>75.5</v>
+      </c>
+      <c r="H25">
+        <v>1.4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>32.06</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>106.6</v>
+      </c>
+      <c r="H26">
+        <v>3.8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>20.178999999999998</v>
+      </c>
+      <c r="E27">
+        <v>5.8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>85.6</v>
+      </c>
+      <c r="H27">
+        <v>1.5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>28.0855</v>
+      </c>
+      <c r="E28">
+        <v>5.8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>85</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>28.0855</v>
+      </c>
+      <c r="E29">
+        <v>5.9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>69.3</v>
+      </c>
+      <c r="H29">
+        <v>6.3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>28.0855</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30">
+        <v>72</v>
+      </c>
+      <c r="H30">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>26.981539999999999</v>
+      </c>
+      <c r="E31">
+        <v>5.9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31">
+        <v>85</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>26.981539999999999</v>
+      </c>
+      <c r="E32">
+        <v>5.8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>61.1</v>
+      </c>
+      <c r="H32">
+        <v>3.1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
